--- a/xlsx/教父神学_intext.xlsx
+++ b/xlsx/教父神学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>教父神学</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖經神學</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_教父神学</t>
+    <t>圣经神学</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_教父神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%99%A2%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>經院神學</t>
+    <t>经院神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教神學</t>
+    <t>基督教神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6_(%E5%9F%BA%E7%9D%A3%E6%95%99%E6%AD%B7%E5%8F%B2)</t>
   </si>
   <si>
-    <t>教父 (基督教歷史)</t>
+    <t>教父 (基督教历史)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%93%B2%E5%AD%A6</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9F%8F%E6%8B%89%E5%9C%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新柏拉圖主義</t>
+    <t>新柏拉图主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>有神論</t>
+    <t>有神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94</t>
   </si>
   <si>
-    <t>三位一體</t>
+    <t>三位一体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%95%91%E8%B4%96%E8%AB%96</t>
   </si>
   <si>
-    <t>基督教救贖論</t>
+    <t>基督教救赎论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6%E5%AD%B8</t>
   </si>
   <si>
-    <t>教父學</t>
+    <t>教父学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%93%B2%E5%AD%A6</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>聖經研究</t>
+    <t>圣经研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E7%BB%8F</t>
@@ -179,19 +179,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BD%8D%E4%B8%80%E4%BD%93</t>
   </si>
   <si>
-    <t>三位一体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%88%B6</t>
   </si>
   <si>
-    <t>聖父</t>
+    <t>圣父</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AD%90</t>
   </si>
   <si>
-    <t>聖子</t>
+    <t>圣子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8D%E6%A0%BC%E5%90%88%E4%B8%80</t>
@@ -215,19 +212,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E5%90%84%E6%96%AF</t>
   </si>
   <si>
-    <t>邏各斯</t>
+    <t>逻各斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E4%B8%AD%E5%BF%83%E8%AB%96</t>
   </si>
   <si>
-    <t>基督中心論</t>
+    <t>基督中心论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88</t>
   </si>
   <si>
-    <t>聖靈</t>
+    <t>圣灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D%E4%B8%AD%E5%BF%83%E8%AE%BA</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%B8%96%E8%A8%98</t>
   </si>
   <si>
-    <t>創世記</t>
+    <t>创世记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%AB%96</t>
   </si>
   <si>
-    <t>人論</t>
+    <t>人论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%95%E5%A4%A9%E4%BD%BF</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E6%81%95</t>
   </si>
   <si>
-    <t>寬恕</t>
+    <t>宽恕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%85%B8</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AA%E8%AB%96</t>
   </si>
   <si>
-    <t>罪論</t>
+    <t>罪论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93</t>
@@ -383,19 +380,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖禮</t>
+    <t>圣礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%94%BF%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>教政體制</t>
+    <t>教政体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E7%9C%BE%E5%88%B6</t>
   </si>
   <si>
-    <t>會眾制</t>
+    <t>会众制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99%E5%88%B6</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%9A%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>神的國</t>
+    <t>神的国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8B%B1</t>
@@ -533,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史神學</t>
+    <t>历史神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>使徒時代</t>
+    <t>使徒时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E4%BC%AF%E6%8B%89%E7%BA%A0%E4%B8%BB%E4%B9%89</t>
@@ -581,19 +578,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%BA%E9%86%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>大覺醒運動</t>
+    <t>大觉醒运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E8%B8%90%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>實踐神學</t>
+    <t>实践神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E8%BE%A8%E6%83%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教辨惑學</t>
+    <t>基督教辨惑学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A5%9E%E5%AD%A6</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>解放神學</t>
+    <t>解放神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eastern_Orthodox_Christian_theology</t>
@@ -617,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E5%AE%9A%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>否定神學</t>
+    <t>否定神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%AD%90%E8%AA%AA</t>
   </si>
   <si>
-    <t>和子說</t>
+    <t>和子说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E7%A5%9E%E8%AE%BA</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
   </si>
   <si>
-    <t>聖母 (基督教)</t>
+    <t>圣母 (基督教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E7%A5%9E%E5%AD%A6</t>
@@ -647,19 +644,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E5%8D%87%E5%A4%A9%E8%AA%AA</t>
   </si>
   <si>
-    <t>聖母升天說</t>
+    <t>圣母升天说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>大公會議</t>
+    <t>大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%83%8F%E7%95%AB</t>
   </si>
   <si>
-    <t>聖像畫</t>
+    <t>圣像画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%AC%E5%A5%89</t>
@@ -719,9 +716,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%A6</t>
   </si>
   <si>
-    <t>解放神学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Anglican_doctrine</t>
   </si>
   <si>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%96%AF%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>衛斯理主義</t>
+    <t>卫斯理主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Theology_of_Martin_Luther</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>加爾文主義</t>
+    <t>加尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%81%A9%E7%8B%AC%E4%BD%9C</t>
@@ -809,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五旬節運動</t>
+    <t>五旬节运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6%E5%93%B2%E5%AD%B8</t>
@@ -2007,7 +2001,7 @@
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2033,10 +2027,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2062,10 +2056,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2091,10 +2085,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2120,10 +2114,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2149,10 +2143,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2178,10 +2172,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2207,10 +2201,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2236,10 +2230,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2265,10 +2259,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2294,10 +2288,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2323,10 +2317,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -2352,10 +2346,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2381,10 +2375,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2410,10 +2404,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2439,10 +2433,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2468,10 +2462,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2526,10 +2520,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2555,10 +2549,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2584,10 +2578,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2613,10 +2607,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2642,10 +2636,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -2671,10 +2665,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2700,10 +2694,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2729,10 +2723,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2758,10 +2752,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2787,10 +2781,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2816,10 +2810,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2845,10 +2839,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2874,10 +2868,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2903,10 +2897,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2932,10 +2926,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>8</v>
@@ -2961,10 +2955,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2990,10 +2984,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3019,10 +3013,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3048,10 +3042,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3077,10 +3071,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3106,10 +3100,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3135,10 +3129,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3164,10 +3158,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3193,10 +3187,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3222,10 +3216,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3251,10 +3245,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3280,10 +3274,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3309,10 +3303,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3338,10 +3332,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3367,10 +3361,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3396,10 +3390,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3425,10 +3419,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3454,10 +3448,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3483,10 +3477,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3512,10 +3506,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3541,10 +3535,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3570,10 +3564,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3599,10 +3593,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3628,10 +3622,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3657,10 +3651,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3686,10 +3680,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3715,10 +3709,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3744,10 +3738,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3773,10 +3767,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3802,10 +3796,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3831,10 +3825,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3860,10 +3854,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3889,10 +3883,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3918,10 +3912,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3947,10 +3941,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3976,10 +3970,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4005,10 +3999,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4034,10 +4028,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4063,10 +4057,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4092,10 +4086,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4121,10 +4115,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4150,10 +4144,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4179,10 +4173,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4208,10 +4202,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4237,10 +4231,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4266,10 +4260,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4295,10 +4289,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4324,10 +4318,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4353,10 +4347,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4382,10 +4376,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4411,10 +4405,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4440,10 +4434,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4469,10 +4463,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4498,10 +4492,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4527,10 +4521,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4556,10 +4550,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4585,10 +4579,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4614,10 +4608,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4643,10 +4637,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4672,10 +4666,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4701,10 +4695,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4730,10 +4724,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4759,10 +4753,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4788,10 +4782,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4817,10 +4811,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4846,10 +4840,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4875,10 +4869,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -4904,10 +4898,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4933,10 +4927,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4962,10 +4956,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4991,10 +4985,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5020,10 +5014,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5049,10 +5043,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5078,10 +5072,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5107,10 +5101,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5136,10 +5130,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>19</v>
@@ -5165,10 +5159,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5194,10 +5188,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>265</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
